--- a/layouts.xlsx
+++ b/layouts.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.miranda\Desktop\Projetos\Personal Github\Batch_Editing_SVG_Map_Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBFA894-AE21-4F25-AFE3-625791CF017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4CD230-B77B-4BC8-97A3-288D355B1E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -432,7 +444,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
